--- a/server/static/download/templates/devices_template_en.xlsx
+++ b/server/static/download/templates/devices_template_en.xlsx
@@ -1,66 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhiw/Development/Work/EMQ/Project/ActorCloud/server/static/download/templates/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3647D5-7825-754B-ADAF-9A70B9C2054F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="24720" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="批量导入模板 - Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="批量导入模板 - Table 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>device12345678</t>
-  </si>
-  <si>
-    <t>v1.2</t>
-  </si>
-  <si>
-    <t>actorcloud</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+  <si>
+    <t>deviceName</t>
+  </si>
+  <si>
+    <t>authType</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>upLinkSystem</t>
   </si>
   <si>
     <t>IMEI</t>
   </si>
   <si>
-    <t>0/1</t>
-  </si>
-  <si>
-    <t>381787278348467</t>
-  </si>
-  <si>
-    <t>deviceName</t>
-  </si>
-  <si>
-    <t>deviceType</t>
-  </si>
-  <si>
-    <t>authType</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>upLinkSystem</t>
-  </si>
-  <si>
     <t>modBusIndex</t>
   </si>
   <si>
@@ -103,22 +71,27 @@
     <t>autoSub</t>
   </si>
   <si>
-    <t>Terminal</t>
+    <t>device name(unique)</t>
   </si>
   <si>
     <t>Token
 Certificate</t>
   </si>
   <si>
-    <t>Terminal
-Smart Phone</t>
+    <t>Product name                                                Supported cloud protocol: (MQTT, CoAP, HTTP, WebSocket)</t>
   </si>
   <si>
     <t>Cloud
 Gateway</t>
   </si>
   <si>
-    <t>device name(unique)</t>
+    <t>Required only for LwM2M</t>
+  </si>
+  <si>
+    <t>Must a number between 0 and 255,only for Modus</t>
+  </si>
+  <si>
+    <t>Gateway name,required only for upLinkSystem is gateway</t>
   </si>
   <si>
     <t>Length must be between 8 and 32 (unique, default is generated if not filled) Number and string or underline combination (no pure numbers supported)</t>
@@ -135,19 +108,40 @@
     <t>sample row(delete befor import)</t>
   </si>
   <si>
+    <t>Token</t>
+  </si>
+  <si>
     <t>sample product</t>
   </si>
   <si>
     <t>Cloud</t>
   </si>
   <si>
+    <t>381787278348467</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>sample gateway</t>
   </si>
   <si>
+    <t>device12345678</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
+    <t>v1.2</t>
+  </si>
+  <si>
+    <t>actorcloud</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample row </t>
+  </si>
+  <si>
+    <t>0/1</t>
   </si>
   <si>
     <r>
@@ -157,9 +151,42 @@
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t xml:space="preserve">Instructions:
-1. Head in red is required;
-2. Second row is the description of field;
-3. All cells are limited to length 50 if not specified;                                                       4. All cell content cannot be pure number if not specified;    </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">1. Head in red is required;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2. Second row is the description of field;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">3. All cells are limited to length 50 if not specified;                                                       4. All cell content cannot be pure number if not specified;    </t>
     </r>
     <r>
       <rPr>
@@ -173,9 +200,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0006FF"/>
+        <color indexed="17"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
       </rPr>
       <t>5.</t>
     </r>
@@ -188,31 +214,32 @@
       <t xml:space="preserve"> Delete all the instructions and the sample row before importing</t>
     </r>
   </si>
-  <si>
-    <t>Gateway name,required only for upLinkSystem is gateway</t>
-  </si>
-  <si>
-    <t>Must a number between 0 and 255,only for Modus</t>
-  </si>
-  <si>
-    <t>Required only for LwM2M</t>
-  </si>
-  <si>
-    <t>Product name                                                Supported cloud protocol: (MQTT, CoAP, HTTP, WebSocket)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -236,18 +263,6 @@
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0006FF"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -397,60 +412,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -461,88 +470,32 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFCC503E"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFA7A7A7"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFE01A3"/>
-      <rgbColor rgb="FF0003FE"/>
-      <rgbColor rgb="FF0006FF"/>
-      <rgbColor rgb="FF0601FC"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffcc503e"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffa7a7a7"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="fffe01a3"/>
+      <rgbColor rgb="ff0003fe"/>
+      <rgbColor rgb="ff0006ff"/>
+      <rgbColor rgb="ff0601fc"/>
     </indexedColors>
-    <mruColors>
-      <color rgb="FF0006FF"/>
-    </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -744,7 +697,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -763,7 +716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -793,7 +746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -845,7 +798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -871,7 +824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,15 +967,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1039,7 +986,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1058,7 +1005,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,7 +1031,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1057,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1109,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,7 +1213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,15 +1252,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1327,7 +1268,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1346,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1376,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1402,7 +1343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1428,7 +1369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1454,7 +1395,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1480,7 +1421,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1506,7 +1447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1532,7 +1473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1558,7 +1499,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1584,7 +1525,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1597,230 +1538,213 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="31" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="9" width="33" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.1640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.33203125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="20.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21" style="1" customWidth="1"/>
-    <col min="19" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="4" width="31" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="8" width="33" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1719" style="1" customWidth="1"/>
+    <col min="11" max="12" width="16.3516" style="1" customWidth="1"/>
+    <col min="13" max="16" width="20.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21" style="1" customWidth="1"/>
+    <col min="18" max="19" width="16.3516" style="1" customWidth="1"/>
+    <col min="20" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="J1" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="K1" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="L1" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="N1" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="O1" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+    </row>
+    <row r="2" ht="77" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="B2" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="C2" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="D2" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="E2" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="F2" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="G2" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="H2" t="s" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="77" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="I2" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="16" t="s">
+      <c r="Q2" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s" s="9">
         <v>32</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="E3" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="F3" t="s" s="9">
         <v>34</v>
       </c>
+      <c r="G3" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="K3" s="10">
+        <v>116.868765448363</v>
+      </c>
+      <c r="L3" s="10">
+        <v>24.4990810465301</v>
+      </c>
+      <c r="M3" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s" s="11">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="10">
-        <v>116.86876544836301</v>
-      </c>
-      <c r="M3" s="10">
-        <v>24.499081046530101</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="20" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1840,9 +1764,8 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
     </row>
-    <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="20" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1862,9 +1785,8 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="20" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1884,9 +1806,8 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
     </row>
-    <row r="7" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="20" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1906,14 +1827,13 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
     </row>
-    <row r="8" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" t="s" s="14">
+        <v>42</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1930,12 +1850,11 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
     </row>
-    <row r="9" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1952,12 +1871,11 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
     </row>
-    <row r="10" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1974,12 +1892,11 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
     </row>
-    <row r="11" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -1996,12 +1913,11 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
     </row>
-    <row r="12" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2018,14 +1934,13 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:C12"/>
+    <mergeCell ref="A8:B12"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/server/static/download/templates/devices_template_en.xlsx
+++ b/server/static/download/templates/devices_template_en.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>deviceName</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>IMEI</t>
-  </si>
-  <si>
-    <t>modBusIndex</t>
   </si>
   <si>
     <t>gateway</t>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Required only for LwM2M</t>
-  </si>
-  <si>
-    <t>Must a number between 0 and 255,only for Modus</t>
   </si>
   <si>
     <t>Gateway name,required only for upLinkSystem is gateway</t>
@@ -120,9 +114,6 @@
     <t>381787278348467</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>sample gateway</t>
   </si>
   <si>
@@ -141,7 +132,7 @@
     <t xml:space="preserve">sample row </t>
   </si>
   <si>
-    <t>0/1</t>
+    <t>1</t>
   </si>
   <si>
     <r>
@@ -416,7 +407,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -425,9 +416,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1553,7 +1541,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1563,14 +1551,14 @@
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="4" width="31" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="8" width="33" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1719" style="1" customWidth="1"/>
-    <col min="11" max="12" width="16.3516" style="1" customWidth="1"/>
-    <col min="13" max="16" width="20.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21" style="1" customWidth="1"/>
-    <col min="18" max="19" width="16.3516" style="1" customWidth="1"/>
-    <col min="20" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="7" width="33" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.3516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.1719" style="1" customWidth="1"/>
+    <col min="10" max="11" width="16.3516" style="1" customWidth="1"/>
+    <col min="12" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="1" customWidth="1"/>
+    <col min="17" max="18" width="16.3516" style="1" customWidth="1"/>
+    <col min="19" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1592,348 +1580,330 @@
       <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="4">
+      <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
       <c r="J1" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="5">
+      <c r="K1" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="5">
+      <c r="L1" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="5">
+      <c r="M1" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="5">
+      <c r="N1" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="5">
+      <c r="O1" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="5">
+      <c r="P1" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="5">
+      <c r="Q1" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="5">
+      <c r="R1" t="s" s="4">
         <v>17</v>
-      </c>
-      <c r="S1" t="s" s="5">
-        <v>18</v>
       </c>
     </row>
     <row r="2" ht="77" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="A2" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="C2" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="D2" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="E2" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="F2" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="G2" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="H2" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="R2" t="s" s="5">
         <v>26</v>
-      </c>
-      <c r="I2" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s" s="6">
-        <v>28</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s" s="8">
         <v>29</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="D3" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="E3" t="s" s="8">
         <v>31</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="F3" t="s" s="8">
         <v>32</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="G3" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="H3" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="J3" s="9">
+        <v>116.868765448363</v>
+      </c>
+      <c r="K3" s="9">
+        <v>24.4990810465301</v>
+      </c>
+      <c r="L3" t="s" s="8">
         <v>34</v>
       </c>
-      <c r="G3" t="s" s="9">
+      <c r="M3" t="s" s="8">
         <v>35</v>
       </c>
-      <c r="H3" t="s" s="9">
+      <c r="N3" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="I3" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="K3" s="10">
-        <v>116.868765448363</v>
-      </c>
-      <c r="L3" s="10">
-        <v>24.4990810465301</v>
-      </c>
-      <c r="M3" t="s" s="9">
+      <c r="P3" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="N3" t="s" s="9">
+      <c r="R3" t="s" s="10">
         <v>38</v>
-      </c>
-      <c r="O3" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="R3" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="S3" t="s" s="11">
-        <v>41</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="A8" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/server/static/download/templates/devices_template_en.xlsx
+++ b/server/static/download/templates/devices_template_en.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>deviceName</t>
   </si>
@@ -26,9 +26,6 @@
     <t>upLinkSystem</t>
   </si>
   <si>
-    <t>IMEI</t>
-  </si>
-  <si>
     <t>gateway</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
     <t>token</t>
   </si>
   <si>
+    <t>mac</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>autoSub</t>
   </si>
   <si>
     <t>device name(unique)</t>
@@ -82,9 +79,6 @@
 Gateway</t>
   </si>
   <si>
-    <t>Required only for LwM2M</t>
-  </si>
-  <si>
     <t>Gateway name,required only for upLinkSystem is gateway</t>
   </si>
   <si>
@@ -94,11 +88,6 @@
     <t>Maximum length 300</t>
   </si>
   <si>
-    <t>Only for LwM2M protocol
-0:no auto subscrie
-1:auto subscribe</t>
-  </si>
-  <si>
     <t>sample row(delete befor import)</t>
   </si>
   <si>
@@ -111,15 +100,15 @@
     <t>Cloud</t>
   </si>
   <si>
-    <t>381787278348467</t>
-  </si>
-  <si>
     <t>sample gateway</t>
   </si>
   <si>
     <t>device12345678</t>
   </si>
   <si>
+    <t>94:17:46:9E:0B:0C</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
@@ -130,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">sample row </t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <r>
@@ -288,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -361,21 +347,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
@@ -407,7 +378,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -438,16 +409,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1541,7 +1509,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1550,15 +1518,14 @@
     <col min="1" max="1" width="22.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="7" width="33" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.1719" style="1" customWidth="1"/>
+    <col min="5" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.3516" style="1" customWidth="1"/>
+    <col min="8" max="9" width="34.1719" style="1" customWidth="1"/>
     <col min="10" max="11" width="16.3516" style="1" customWidth="1"/>
     <col min="12" max="15" width="20.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="21" style="1" customWidth="1"/>
-    <col min="17" max="18" width="16.3516" style="1" customWidth="1"/>
-    <col min="19" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="1" customWidth="1"/>
+    <col min="18" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1574,7 +1541,7 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
       <c r="F1" t="s" s="3">
@@ -1612,39 +1579,34 @@
       </c>
       <c r="Q1" t="s" s="4">
         <v>16</v>
-      </c>
-      <c r="R1" t="s" s="4">
-        <v>17</v>
       </c>
     </row>
     <row r="2" ht="77" customHeight="1">
       <c r="A2" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="C2" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="D2" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="E2" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="F2" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="F2" t="s" s="5">
-        <v>23</v>
-      </c>
       <c r="G2" t="s" s="5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s" s="5">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I2" s="5"/>
       <c r="J2" t="s" s="5">
         <v>9</v>
       </c>
@@ -1658,42 +1620,39 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" t="s" s="5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s" s="5">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="E3" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="F3" t="s" s="8">
         <v>29</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="G3" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s" s="8">
         <v>30</v>
-      </c>
-      <c r="E3" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="J3" s="9">
         <v>116.868765448363</v>
@@ -1702,208 +1661,196 @@
         <v>24.4990810465301</v>
       </c>
       <c r="L3" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s" s="8">
         <v>34</v>
-      </c>
-      <c r="M3" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="P3" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s" s="10">
-        <v>38</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" t="s" s="13">
-        <v>39</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="A8" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
